--- a/Documentos/CAMPOSNOVEDADES.xlsx
+++ b/Documentos/CAMPOSNOVEDADES.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentos/CAMPOSNOVEDADES.xlsx
+++ b/Documentos/CAMPOSNOVEDADES.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="3165"/>
+    <workbookView xWindow="720" yWindow="600" windowWidth="19635" windowHeight="7185"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="CAMPOSNOVEDADES" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>CI</t>
   </si>
@@ -30,14 +29,194 @@
     <t>VALOR</t>
   </si>
   <si>
-    <t>66C02FED603C449F89096F15A879A2E8</t>
+    <t>1era Quincena-Administrativo 40%</t>
+  </si>
+  <si>
+    <t>Apr-16</t>
+  </si>
+  <si>
+    <t>PARAMETRO RUBROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipo de sueldo </t>
+  </si>
+  <si>
+    <t>Bono Check List</t>
+  </si>
+  <si>
+    <t>Provisión Fondos de Reserva</t>
+  </si>
+  <si>
+    <t>Bono Especial CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidio por maternidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuento facturas productos </t>
+  </si>
+  <si>
+    <t>Bono Cumplimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incentivos </t>
+  </si>
+  <si>
+    <t>Descuentos voluntarios Comité Responsabilidad</t>
+  </si>
+  <si>
+    <t>Atrasos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compras a crédito </t>
+  </si>
+  <si>
+    <t>dtm-adm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguro vehículo </t>
+  </si>
+  <si>
+    <t>Faltante Inventario</t>
+  </si>
+  <si>
+    <t>Bono Especial</t>
+  </si>
+  <si>
+    <t>Retencion Juzgado de la Niñez</t>
+  </si>
+  <si>
+    <t>Provision Aporte patronal IESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros descuentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguro médico voluntario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comisiones </t>
+  </si>
+  <si>
+    <t>Daño Equipos</t>
+  </si>
+  <si>
+    <t>Pedidos Motociclistas</t>
+  </si>
+  <si>
+    <t>Impuesto a la Renta</t>
+  </si>
+  <si>
+    <t>Subsidio Enfermedad</t>
+  </si>
+  <si>
+    <t>Bono Ventas</t>
+  </si>
+  <si>
+    <t>Multas</t>
+  </si>
+  <si>
+    <t>Faltas Injustificadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bono Alimentación Fundación  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisión Décimo Cuarto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donaciones voluntarias </t>
+  </si>
+  <si>
+    <t>Faltante Caja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuento librería </t>
+  </si>
+  <si>
+    <t>1era Quincena-Tiempo completo</t>
+  </si>
+  <si>
+    <t>Prestamo Empresa</t>
+  </si>
+  <si>
+    <t>Bono Desempeño</t>
+  </si>
+  <si>
+    <t>Subsidio Combustible</t>
+  </si>
+  <si>
+    <t>Daño Producto</t>
+  </si>
+  <si>
+    <t>Horas Extras (Suplementarias)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestamos Quirografarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondos de Reserva </t>
+  </si>
+  <si>
+    <t>Horas Extras (Extraordinarias)</t>
+  </si>
+  <si>
+    <t>Sueldo</t>
+  </si>
+  <si>
+    <t>Provision Aporte personal IESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisión Décimo tercero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuento vehículo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrigerios </t>
+  </si>
+  <si>
+    <t>Provisión Aporte Patronal 12.15%</t>
+  </si>
+  <si>
+    <t>Bono Rol</t>
+  </si>
+  <si>
+    <t>Descuento Supermaxi</t>
+  </si>
+  <si>
+    <t>1era Quincena-Medio Tiempo</t>
+  </si>
+  <si>
+    <t>Factura Empleado</t>
+  </si>
+  <si>
+    <t>Vacaciones años antiguedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornada nocturna 25% </t>
+  </si>
+  <si>
+    <t>Movilización varios</t>
+  </si>
+  <si>
+    <t>Perdida Efectivo, Cheque, Voucher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuento uniformes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestamo Hipotecario </t>
+  </si>
+  <si>
+    <t>Descuento celular</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +224,317 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -62,15 +542,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,15 +1038,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -396,41 +1065,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1721737243</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>201891090</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1721737243</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>201891090</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1721737243</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>201891090</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -438,43 +1107,617 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1721737243</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>201891090</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>201891090</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>201891090</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>201891090</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>201891090</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>201891090</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>201891090</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>201891090</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>201891090</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>201891090</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>201891090</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>925164220</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>925164220</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>925164220</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>925164220</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>925164220</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>925164220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>925164220</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>925164220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>925164220</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja1!$A$2:$A$60</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B24</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>